--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-05.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-05.xlsx
@@ -52,11 +52,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Are those... wild animals? No... they’re clearly being controlled.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] The casters of Reunion have controlled so many Originium Slugs and drones. They’re using sheer numbers to overwhelm us!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Are those... wild animals? No... they're clearly being controlled.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] The casters of Reunion have controlled so many Originium Slugs and drones. They're using sheer numbers to overwhelm us!
 </t>
   </si>
   <si>
